--- a/occurrences_algo_IA.xlsx
+++ b/occurrences_algo_IA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A19C364-1916-4456-8CBD-891CB4E6E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1A19C364-1916-4456-8CBD-891CB4E6E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94ABD84E-2C5B-424A-AEC4-7F74BC1AE03A}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6D2FA384-3CDC-4EE8-99FE-363D20990EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D2FA384-3CDC-4EE8-99FE-363D20990EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="occurrences_algo_IA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Visual Elements</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>picture</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -943,13 +946,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7000F4-5AD2-4EEC-ACA5-6760EA3A9CDC}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,8 +997,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1036,8 +1044,11 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1080,8 +1091,11 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1168,8 +1185,11 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1212,8 +1232,11 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1256,8 +1279,11 @@
       <c r="N7">
         <v>1</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1298,6 +1324,9 @@
         <v>1</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
